--- a/data/trans_camb/P23_DUKE_AC_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,64</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,73</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,71</t>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 1,5</t>
+          <t>-5,46; 5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,97</t>
+          <t>-6,96; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,2; 67,91</t>
+          <t>-0,56; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,33</t>
+          <t>-3,29; 6,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,59</t>
+          <t>-4,54; 4,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,65; 66,93</t>
+          <t>0,85; 9,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,12</t>
+          <t>0,27; 9,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,43</t>
+          <t>1,72; 10,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,82; 65,77</t>
+          <t>-6,46; 2,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 0,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 6,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 5,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 8,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 2,84</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 0,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>372,37%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>408,02%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>390,32%</t>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-3,97%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 12,42</t>
+          <t>-6,72; 6,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 36,64</t>
+          <t>-8,68; 4,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>259,07; 511,42</t>
+          <t>-0,69; 12,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 25,29</t>
+          <t>-3,84; 8,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 74,33</t>
+          <t>-5,26; 5,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>329,42; 513,19</t>
+          <t>1,08; 13,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 7,57</t>
+          <t>0,35; 12,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 36,97</t>
+          <t>2,09; 14,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>313,41; 461,04</t>
+          <t>-7,57; 2,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 0,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 8,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 6,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 11,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 3,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 1,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62,05</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,88</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,44</t>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,23</t>
+          <t>2,11; 14,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 6,53</t>
+          <t>-1,58; 11,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,28; 69,89</t>
+          <t>-2,64; 10,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,71</t>
+          <t>-4,52; 11,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,31</t>
+          <t>-11,03; 8,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,72; 67,48</t>
+          <t>-3,67; 6,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,37</t>
+          <t>-8,82; 1,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,09</t>
+          <t>-5,51; 5,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,41; 66,6</t>
+          <t>-8,35; 5,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 2,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 8,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 4,79</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 7,16</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 6,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 3,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>401,06%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>361,96%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>380,25%</t>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 60,47</t>
+          <t>2,86; 20,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 53,95</t>
+          <t>-2,1; 15,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>245,25; 594,5</t>
+          <t>-3,44; 15,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 19,94</t>
+          <t>-5,54; 15,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 30,7</t>
+          <t>-12,52; 9,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>268,39; 490,98</t>
+          <t>-4,37; 7,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 23,88</t>
+          <t>-10,63; 1,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 29,63</t>
+          <t>-6,46; 6,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>290,71; 495,68</t>
+          <t>-9,92; 6,29</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 3,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 11,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 6,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 9,38</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 8,69</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 4,7</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>13,83</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,25</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,99</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,41</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 21,25</t>
+          <t>-8,6; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 20,41</t>
+          <t>-1,7; 24,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-10,12; 21,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,37; 4,69</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>4,56; 24,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 17,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 22,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 9,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 12,93</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 18,17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 17,28</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 18,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-24,65%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 261,78</t>
+          <t>-10,32; 27,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 240,3</t>
+          <t>-1,81; 39,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-12,1; 34,26</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-54,27; 34,88</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 73,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>5,88; 36,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 25,73</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 33,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-25,32; 73,54</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 100,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 27,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 25,64</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 27,03</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>63,12</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,68</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>62,39</t>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,6</t>
+          <t>-0,02; 7,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,99</t>
+          <t>-1,74; 6,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,7; 67,37</t>
+          <t>0,47; 8,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,29</t>
+          <t>-0,96; 7,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,29</t>
+          <t>-4,9; 2,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,19; 64,93</t>
+          <t>1,67; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,35</t>
+          <t>-1,41; 5,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,86</t>
+          <t>1,42; 7,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,04</t>
+          <t>-6,14; 1,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 0,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 7,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 4,35</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 7,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 3,17</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 0,54</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>397,64%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>377,44%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>387,16%</t>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 25,4</t>
+          <t>-0,02; 9,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 35,9</t>
+          <t>-2,22; 8,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>309,82; 500,57</t>
+          <t>0,56; 11,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 8,42</t>
+          <t>-1,08; 10,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 34,76</t>
+          <t>-5,74; 3,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>315,93; 447,29</t>
+          <t>2,13; 10,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 9,02</t>
+          <t>-1,7; 6,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 25,94</t>
+          <t>1,76; 10,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>327,97; 442,94</t>
+          <t>-7,2; 1,32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 0,16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 9,3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 5,7</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 9,8</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 3,94</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
